--- a/Financials/OTC Markets Group.xlsx
+++ b/Financials/OTC Markets Group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6553E4-7B62-EC47-8777-D6C207684265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE3F19-F5CB-EA44-AEC3-94D9EB9C9730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="253">
   <si>
     <t>2010 Y</t>
   </si>
@@ -830,6 +830,9 @@
   </si>
   <si>
     <t>Daily Change %</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -986,6 +989,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1069,7 +1078,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1114,65 +1123,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1181,23 +1133,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,7 +1229,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1215,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1276,252 +1439,261 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,6 +1731,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1576,7 +1749,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1588,6 +1761,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1715,9 +1889,11 @@
     <v>Powered by Refinitiv</v>
     <v>64.989999999999995</v>
     <v>49.500100000000003</v>
-    <v>0.66920000000000002</v>
-    <v>-0.49</v>
-    <v>-8.4480000000000006E-3</v>
+    <v>0.67900000000000005</v>
+    <v>-0.25</v>
+    <v>-4.2370000000000003E-3</v>
+    <v>-0.8</v>
+    <v>-1.3616999999999999E-2</v>
     <v>USD</v>
     <v>OTC Markets Group Inc. operates regulated markets for trading 12,000 United States and international securities. The Company’s three public markets include OTCQX Best Market, OTCQB Venture Market and Pink Open Market. It operates three business lines: OTC Link, Market Data Licensing, and Corporate Services. Its wholly owned subsidiary, OTC Link LLC, operates OTC Link ATS, OTC Link ECN, and OTC Link NQB, each a Securities and Exchange Commission (SEC)-regulated alternative trading system (ATS). Market Data Licensing distributes market data and financial information. Corporate Services operates the OTCQX and OTCQB markets and offers issuers disclosure and regulatory compliance products. It provides critical infrastructure to the United States financial markets, connecting brokers, organizing markets, and incentivizing disclosure. Its market data provides price transparency, assists regulated entities in meeting their compliance obligations, and enables informed investment decisions.</v>
     <v>82</v>
@@ -1725,24 +1901,25 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>304 Hudson Street, NEW YORK, NY, 10013 US</v>
-    <v>58.51</v>
+    <v>58.75</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45238.863319397657</v>
+    <v>45262.048611111109</v>
     <v>0</v>
-    <v>57.51</v>
-    <v>685694605</v>
+    <v>57.1</v>
+    <v>700711250</v>
     <v>OTC MARKETS GROUP INC.</v>
     <v>OTC MARKETS GROUP INC.</v>
-    <v>57.99</v>
-    <v>23.349799999999998</v>
-    <v>58</v>
-    <v>57.51</v>
-    <v>11923050</v>
+    <v>58.02</v>
+    <v>23.752400000000002</v>
+    <v>59</v>
+    <v>58.75</v>
+    <v>57.95</v>
+    <v>11927000</v>
     <v>OTCM</v>
     <v>OTC MARKETS GROUP INC. (OTCM:OTCM)</v>
-    <v>8403</v>
-    <v>5590</v>
+    <v>1301</v>
+    <v>5770</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1774,6 +1951,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1794,6 +1973,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1810,7 +1990,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1821,13 +2001,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1893,12 +2076,18 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1943,12 +2132,18 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2469,55 +2664,55 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11">
-        <f>(C2/B2)-1</f>
+        <f t="shared" ref="C3:O3" si="0">(C2/B2)-1</f>
         <v>0.17947805432527897</v>
       </c>
       <c r="D3" s="11">
-        <f>(D2/C2)-1</f>
+        <f t="shared" si="0"/>
         <v>5.8805698696575703E-3</v>
       </c>
       <c r="E3" s="11">
-        <f>(E2/D2)-1</f>
+        <f t="shared" si="0"/>
         <v>1.3741562198649859E-2</v>
       </c>
       <c r="F3" s="11">
-        <f>(F2/E2)-1</f>
+        <f t="shared" si="0"/>
         <v>0.18391795481569551</v>
       </c>
       <c r="G3" s="11">
-        <f>(G2/F2)-1</f>
+        <f t="shared" si="0"/>
         <v>0.19341150475807867</v>
       </c>
       <c r="H3" s="11">
-        <f>(H2/G2)-1</f>
+        <f t="shared" si="0"/>
         <v>2.1775720597517312E-2</v>
       </c>
       <c r="I3" s="11">
-        <f>(I2/H2)-1</f>
+        <f t="shared" si="0"/>
         <v>7.4353958612169313E-2</v>
       </c>
       <c r="J3" s="11">
-        <f>(J2/I2)-1</f>
+        <f t="shared" si="0"/>
         <v>8.9198098742717002E-2</v>
       </c>
       <c r="K3" s="11">
-        <f>(K2/J2)-1</f>
+        <f t="shared" si="0"/>
         <v>6.1939116663733973E-2</v>
       </c>
       <c r="L3" s="11">
-        <f>(L2/K2)-1</f>
+        <f t="shared" si="0"/>
         <v>0.13370339685169852</v>
       </c>
       <c r="M3" s="11">
-        <f>(M2/L2)-1</f>
+        <f t="shared" si="0"/>
         <v>0.46028150075271479</v>
       </c>
       <c r="N3" s="11">
-        <f>(N2/M2)-1</f>
+        <f t="shared" si="0"/>
         <v>5.242665972715721E-2</v>
       </c>
       <c r="O3" s="11">
-        <f>(O2/N2)-1</f>
+        <f t="shared" si="0"/>
         <v>4.9738941882471188E-3</v>
       </c>
       <c r="P3" s="11"/>
@@ -3011,75 +3206,75 @@
         <v>192</v>
       </c>
       <c r="B12" s="11">
-        <f>B11/B2</f>
+        <f t="shared" ref="B12:S12" si="1">B11/B2</f>
         <v>0.60462780138104399</v>
       </c>
       <c r="C12" s="11">
-        <f>C11/C2</f>
+        <f t="shared" si="1"/>
         <v>0.61160957866020005</v>
       </c>
       <c r="D12" s="11">
-        <f>D11/D2</f>
+        <f t="shared" si="1"/>
         <v>0.29224927675988427</v>
       </c>
       <c r="E12" s="11">
-        <f>E11/E2</f>
+        <f t="shared" si="1"/>
         <v>0.27826991676575508</v>
       </c>
       <c r="F12" s="11">
-        <f>F11/F2</f>
+        <f t="shared" si="1"/>
         <v>0.24480879805157305</v>
       </c>
       <c r="G12" s="11">
-        <f>G11/G2</f>
+        <f t="shared" si="1"/>
         <v>0.21577950767936041</v>
       </c>
       <c r="H12" s="11">
-        <f>H11/H2</f>
+        <f t="shared" si="1"/>
         <v>0.21499021929373005</v>
       </c>
       <c r="I12" s="11">
-        <f>I11/I2</f>
+        <f t="shared" si="1"/>
         <v>0.21139987733823981</v>
       </c>
       <c r="J12" s="11">
-        <f>J11/J2</f>
+        <f t="shared" si="1"/>
         <v>0.21024106985746965</v>
       </c>
       <c r="K12" s="11">
-        <f>K11/K2</f>
+        <f t="shared" si="1"/>
         <v>0.21932062966031482</v>
       </c>
       <c r="L12" s="11">
-        <f>L11/L2</f>
+        <f t="shared" si="1"/>
         <v>0.1944781420365688</v>
       </c>
       <c r="M12" s="11">
-        <f>M11/M2</f>
+        <f t="shared" si="1"/>
         <v>0.167919448308995</v>
       </c>
       <c r="N12" s="11">
-        <f>N11/N2</f>
+        <f t="shared" si="1"/>
         <v>0.18738171547042767</v>
       </c>
       <c r="O12" s="11">
-        <f>O11/O2</f>
+        <f t="shared" si="1"/>
         <v>0.20178476796123854</v>
       </c>
       <c r="P12" s="11">
-        <f>P11/P2</f>
+        <f t="shared" si="1"/>
         <v>0.20024594390892142</v>
       </c>
       <c r="Q12" s="11">
-        <f>Q11/Q2</f>
+        <f t="shared" si="1"/>
         <v>0.19140050117338211</v>
       </c>
       <c r="R12" s="11">
-        <f>R11/R2</f>
+        <f t="shared" si="1"/>
         <v>0.20164865359956036</v>
       </c>
       <c r="S12" s="11">
-        <f>S11/S2</f>
+        <f t="shared" si="1"/>
         <v>0.21261640560887715</v>
       </c>
     </row>
@@ -3147,75 +3342,75 @@
         <v>193</v>
       </c>
       <c r="B14" s="11">
-        <f>B13/B2</f>
+        <f t="shared" ref="B14:S14" si="2">B13/B2</f>
         <v>0</v>
       </c>
       <c r="C14" s="11">
-        <f>C13/C2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D14" s="11">
-        <f>D13/D2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <f>E13/E2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <f>F13/F2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f>G13/G2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="11">
-        <f>H13/H2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <f>I13/I2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="11">
-        <f>J13/J2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="11">
-        <f>K13/K2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <f>L13/L2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>M13/M2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <f>N13/N2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="11">
-        <f>O13/O2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14" s="11">
-        <f>P13/P2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q14" s="11">
-        <f>Q13/Q2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="11">
-        <f>R13/R2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="11">
-        <f>S13/S2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3414,39 +3609,39 @@
         <v>-7.3470299240732451E-2</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" ref="F18:N18" si="0">(F16/E16)-1</f>
+        <f t="shared" ref="F18:N18" si="3">(F16/E16)-1</f>
         <v>0.55483248975656774</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.30723918772283376</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6167437448120232E-3</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.1349323565900633E-2</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.3262674825174789E-2</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8.974293713413084E-2</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.19863549938485625</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.77363068022767556</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3.1434132996633002E-2</v>
       </c>
       <c r="O18" s="11">
@@ -4429,39 +4624,39 @@
         <v>2.8117582618221615E-2</v>
       </c>
       <c r="F35" s="16">
-        <f t="shared" ref="F35:N35" si="1">(F33/E33)-1</f>
+        <f t="shared" ref="F35:N35" si="4">(F33/E33)-1</f>
         <v>0.40117208311134789</v>
       </c>
       <c r="G35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.300126742712294</v>
       </c>
       <c r="H35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.6320920257360214E-2</v>
       </c>
       <c r="I35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.19291413373860178</v>
       </c>
       <c r="J35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.29285771160124208</v>
       </c>
       <c r="K35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.9756112582373584E-2</v>
       </c>
       <c r="L35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.22299558292062649</v>
       </c>
       <c r="M35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.66772463609499844</v>
       </c>
       <c r="N35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.10906943168394E-2</v>
       </c>
       <c r="O35" s="16">
@@ -4487,75 +4682,75 @@
         <v>197</v>
       </c>
       <c r="B36" s="18" t="e">
-        <f t="shared" ref="B36:S36" si="2">(B16*(1-0.25))/(B126+B105+B96)</f>
+        <f t="shared" ref="B36:S36" si="5">(B16*(1-0.25))/(B126+B105+B96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C36" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D36" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="E36" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F36" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G36" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H36" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="K36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.38164821718220882</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.44853515625000001</v>
       </c>
       <c r="M36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.68847946297056484</v>
       </c>
       <c r="N36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61304304393189335</v>
       </c>
       <c r="O36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.56513245459619599</v>
       </c>
       <c r="P36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13840406455469217</v>
       </c>
       <c r="Q36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.12094701904031122</v>
       </c>
       <c r="R36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16446156236819323</v>
       </c>
       <c r="S36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11146472886522692</v>
       </c>
     </row>
@@ -9946,39 +10141,39 @@
         <v>1.7357584710552931E-2</v>
       </c>
       <c r="F129" s="19">
-        <f t="shared" ref="F129:N129" si="3">(F128/E128)-1</f>
+        <f t="shared" ref="F129:N129" si="6">(F128/E128)-1</f>
         <v>2.123604682820579E-2</v>
       </c>
       <c r="G129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.412956544921351E-2</v>
       </c>
       <c r="H129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.8916929547844195E-3</v>
       </c>
       <c r="I129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.8001581861324425E-3</v>
       </c>
       <c r="J129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.086937527304606E-3</v>
       </c>
       <c r="K129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.1782838340981332E-3</v>
       </c>
       <c r="L129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.7190047190046602E-3</v>
       </c>
       <c r="M129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.8565328778821275E-3</v>
       </c>
       <c r="N129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.185392306388815E-3</v>
       </c>
       <c r="O129" s="19">
@@ -10712,75 +10907,75 @@
         <v>199</v>
       </c>
       <c r="B143" s="19">
-        <f>B142/B2</f>
+        <f t="shared" ref="B143:S143" si="7">B142/B2</f>
         <v>2.2385985784268352E-2</v>
       </c>
       <c r="C143" s="19">
-        <f>C142/C2</f>
+        <f t="shared" si="7"/>
         <v>1.6823279781752045E-2</v>
       </c>
       <c r="D143" s="19">
-        <f>D142/D2</f>
+        <f t="shared" si="7"/>
         <v>2.886933461909354E-2</v>
       </c>
       <c r="E143" s="19">
-        <f>E142/E2</f>
+        <f t="shared" si="7"/>
         <v>3.2372175980975026E-2</v>
       </c>
       <c r="F143" s="19">
-        <f>F142/F2</f>
+        <f t="shared" si="7"/>
         <v>3.1159765987897659E-2</v>
       </c>
       <c r="G143" s="19">
-        <f>G142/G2</f>
+        <f t="shared" si="7"/>
         <v>3.2653061224489799E-2</v>
       </c>
       <c r="H143" s="19">
-        <f>H142/H2</f>
+        <f t="shared" si="7"/>
         <v>3.3913312056007415E-2</v>
       </c>
       <c r="I143" s="19">
-        <f>I142/I2</f>
+        <f t="shared" si="7"/>
         <v>3.6664366758662983E-2</v>
       </c>
       <c r="J143" s="19">
-        <f>J142/J2</f>
+        <f t="shared" si="7"/>
         <v>3.9820517332394861E-2</v>
       </c>
       <c r="K143" s="19">
-        <f>K142/K2</f>
+        <f t="shared" si="7"/>
         <v>4.4788732394366197E-2</v>
       </c>
       <c r="L143" s="19">
-        <f>L142/L2</f>
+        <f t="shared" si="7"/>
         <v>4.4709802832546518E-2</v>
       </c>
       <c r="M143" s="19">
-        <f>M142/M2</f>
+        <f t="shared" si="7"/>
         <v>3.3349681216282491E-2</v>
       </c>
       <c r="N143" s="19">
-        <f>N142/N2</f>
+        <f t="shared" si="7"/>
         <v>4.1322314049586778E-2</v>
       </c>
       <c r="O143" s="19">
-        <f>O142/O2</f>
+        <f t="shared" si="7"/>
         <v>4.4704368233779997E-2</v>
       </c>
       <c r="P143" s="19">
-        <f>P142/P2</f>
+        <f t="shared" si="7"/>
         <v>3.8875004958546552E-2</v>
       </c>
       <c r="Q143" s="19">
-        <f>Q142/Q2</f>
+        <f t="shared" si="7"/>
         <v>4.2361083489121355E-2</v>
       </c>
       <c r="R143" s="19">
-        <f>R142/R2</f>
+        <f t="shared" si="7"/>
         <v>4.0483605055871036E-2</v>
       </c>
       <c r="S143" s="19">
-        <f>S142/S2</f>
+        <f t="shared" si="7"/>
         <v>5.6160131301958828E-2</v>
       </c>
     </row>
@@ -13457,39 +13652,39 @@
         <v>6.6567042521396447E-2</v>
       </c>
       <c r="F189" s="22">
-        <f t="shared" ref="F189:N189" si="4">(F188/E188)-1</f>
+        <f t="shared" ref="F189:N189" si="8">(F188/E188)-1</f>
         <v>0.39090561711883831</v>
       </c>
       <c r="G189" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.48049450549450556</v>
       </c>
       <c r="H189" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.2081400383497289E-2</v>
       </c>
       <c r="I189" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-4.567699836868222E-4</v>
       </c>
       <c r="J189" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.43889541715628666</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.24862755773331513</v>
       </c>
       <c r="L189" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.50830263872954529</v>
       </c>
       <c r="M189" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.80395532247087553</v>
       </c>
       <c r="N189" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.28459199751448039</v>
       </c>
       <c r="O189" s="22">
@@ -13515,75 +13710,75 @@
         <v>201</v>
       </c>
       <c r="B190" s="24">
-        <f>B188/B2</f>
+        <f t="shared" ref="B190:S190" si="9">B188/B2</f>
         <v>0.18719432203054423</v>
       </c>
       <c r="C190" s="24">
-        <f>C188/C2</f>
+        <f t="shared" si="9"/>
         <v>0.20230372840254623</v>
       </c>
       <c r="D190" s="24">
-        <f>D188/D2</f>
+        <f t="shared" si="9"/>
         <v>0.22182377049180327</v>
       </c>
       <c r="E190" s="24">
-        <f>E188/E2</f>
+        <f t="shared" si="9"/>
         <v>0.23338287752675385</v>
       </c>
       <c r="F190" s="24">
-        <f>F188/F2</f>
+        <f t="shared" si="9"/>
         <v>0.27418585381776184</v>
       </c>
       <c r="G190" s="24">
-        <f>G188/G2</f>
+        <f t="shared" si="9"/>
         <v>0.34014306753629286</v>
       </c>
       <c r="H190" s="24">
-        <f>H188/H2</f>
+        <f t="shared" si="9"/>
         <v>0.31555647070935861</v>
       </c>
       <c r="I190" s="24">
-        <f>I188/I2</f>
+        <f t="shared" si="9"/>
         <v>0.29358325666973323</v>
       </c>
       <c r="J190" s="24">
-        <f>J188/J2</f>
+        <f t="shared" si="9"/>
         <v>0.38784092908674994</v>
       </c>
       <c r="K190" s="24">
-        <f>K188/K2</f>
+        <f t="shared" si="9"/>
         <v>0.27441590720795361</v>
       </c>
       <c r="L190" s="24">
-        <f>L188/L2</f>
+        <f t="shared" si="9"/>
         <v>0.3650886449670413</v>
       </c>
       <c r="M190" s="24">
-        <f>M188/M2</f>
+        <f t="shared" si="9"/>
         <v>0.45101140014613006</v>
       </c>
       <c r="N190" s="24">
-        <f>N188/N2</f>
+        <f t="shared" si="9"/>
         <v>0.30658399033752104</v>
       </c>
       <c r="O190" s="25">
-        <f>O188/O2</f>
+        <f t="shared" si="9"/>
         <v>0.28851540616246496</v>
       </c>
       <c r="P190" s="24">
-        <f>P188/P2</f>
+        <f t="shared" si="9"/>
         <v>0.25340156293387284</v>
       </c>
       <c r="Q190" s="24">
-        <f>Q188/Q2</f>
+        <f t="shared" si="9"/>
         <v>0.36482240165466767</v>
       </c>
       <c r="R190" s="24">
-        <f>R188/R2</f>
+        <f t="shared" si="9"/>
         <v>0.59970690602674481</v>
       </c>
       <c r="S190" s="24">
-        <f>S188/S2</f>
+        <f t="shared" si="9"/>
         <v>-5.1414707246583653E-2</v>
       </c>
     </row>
@@ -13842,7 +14037,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13850,1732 +14045,1790 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="e" vm="1">
+    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-    </row>
-    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+    </row>
+    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>685694605</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>700711250</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="67">
         <f>Financials!O8*0.01</f>
         <v>0.55569999999999997</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="67">
         <f>SUM(C11:E11)/3</f>
         <v>0.21547051911052351</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="69">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>6.2446848527379032E-3</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>866102087.91320074</v>
-      </c>
-      <c r="J3" s="102" t="s">
+      <c r="I3" s="70">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>875594744.2053138</v>
+      </c>
+      <c r="J3" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="72">
         <f>(Financials!O172*-1)/A3</f>
-        <v>3.8452978640542167E-2</v>
-      </c>
-      <c r="L3" s="37" t="s">
+        <v>3.7628909197618847E-2</v>
+      </c>
+      <c r="L3" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="112" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="40"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
+      <c r="A4" s="74">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>14960000</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="35">
         <f>Financials!O17*0.01</f>
         <v>0.3322</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="35">
         <f>SUM(C13:E13)/3</f>
         <v>0.30060363777748811</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="77">
         <f>A5*(1+(5*G3))</f>
-        <v>12295328.448667184</v>
-      </c>
-      <c r="H4" s="46" t="s">
+        <v>12299401.781193025</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="41">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>784512938.2756145</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="78">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>793110876.4648186</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="103" cm="1">
+      <c r="K4" s="79" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-8.4480000000000006E-3</v>
-      </c>
-      <c r="L4" s="46" t="s">
+        <v>-4.2370000000000003E-3</v>
+      </c>
+      <c r="L4" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="114" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="40"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" cm="1">
+      <c r="A5" s="74" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>11923050</v>
-      </c>
-      <c r="B5" s="42" t="s">
+        <v>11927000</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="48">
-        <f>Financials!O34*0.01</f>
-        <v>0.27929999999999999</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="35">
+        <f>F14</f>
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="43">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="35">
+        <f>SUM(C16:E16)/3</f>
         <v>0.34255532122864679</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="77">
         <f>Financials!O56</f>
         <v>29884000</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="78">
         <f>I4+G5-G6</f>
-        <v>799472938.2756145</v>
-      </c>
-      <c r="J5" s="44" t="s">
+        <v>808070876.4648186</v>
+      </c>
+      <c r="J5" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="104" cm="1">
+      <c r="K5" s="82" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>57.51</v>
-      </c>
-      <c r="L5" s="42" t="s">
+        <v>58.75</v>
+      </c>
+      <c r="L5" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="49" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="98">
         <f>Financials!O20</f>
         <v>-295000</v>
       </c>
-      <c r="P5" s="40"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
+      <c r="A6" s="84">
         <f>O20/F10</f>
-        <v>6.1222732589285718</v>
-      </c>
-      <c r="B6" s="42" t="s">
+        <v>6.2563504464285717</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="43">
-        <f>Financials!O190</f>
-        <v>0.28851540616246496</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="35">
+        <f>F17</f>
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="D6" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="35">
         <f>Financials!O33/Financials!O126</f>
         <v>0.93243413986985912</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="77">
         <f>Financials!O96+Financials!O105</f>
         <v>14924000</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="79">
         <f>N25</f>
-        <v>6.9462991254552145E-2</v>
-      </c>
-      <c r="J6" s="46" t="s">
+        <v>6.8926744117087421E-2</v>
+      </c>
+      <c r="J6" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="85">
         <f>I5/G4</f>
-        <v>65.022495463492689</v>
-      </c>
-      <c r="L6" s="55" t="s">
+        <v>65.700014589362965</v>
+      </c>
+      <c r="L6" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="56" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="98">
         <f>Financials!O96</f>
         <v>1935000</v>
       </c>
-      <c r="P6" s="40"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87">
         <f>O20/F12</f>
-        <v>24.489093035714287</v>
-      </c>
-      <c r="B7" s="59" t="s">
+        <v>25.025401785714287</v>
+      </c>
+      <c r="B7" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="60">
-        <f>F14/A3</f>
-        <v>5.5418257228376469E-2</v>
-      </c>
-      <c r="D7" s="61" t="s">
+      <c r="C7" s="89">
+        <f>F15/A3</f>
+        <v>5.4230612110195177E-2</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="90">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.56513245459619599</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="91">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.47141322888369447</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="93">
         <v>0.02</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="95">
         <f>K6/K5-1</f>
-        <v>0.13062937686476594</v>
-      </c>
-      <c r="L7" s="68" t="s">
+        <v>0.118298120670008</v>
+      </c>
+      <c r="L7" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="56" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="98">
         <f>Financials!O105</f>
         <v>12989000</v>
       </c>
-      <c r="P7" s="40"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="70" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="O8" s="71">
+      <c r="O8" s="100">
         <f>O5/(O6+O7)</f>
         <v>-1.9766818547306352E-2</v>
       </c>
-      <c r="P8" s="40"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45">
         <v>2019</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="45">
         <v>2020</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="45">
         <v>2021</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="46">
         <v>2022</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="47">
         <v>2023</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="48">
         <v>2024</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="48">
         <v>2025</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="48">
         <v>2026</v>
       </c>
-      <c r="J9" s="75">
+      <c r="J9" s="49">
         <v>2027</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="56" t="s">
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="98">
         <f>Financials!O25</f>
         <v>5873000</v>
       </c>
-      <c r="P9" s="40"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="52">
         <v>60350000</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="52">
         <v>68419000</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="52">
         <v>99911000</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="53">
         <v>105149000</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="52">
         <v>112000000</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="52">
         <v>116400000</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="52">
         <v>119000000</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="52">
         <v>121000000</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="53">
         <v>124000000</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="L10" s="50"/>
+      <c r="N10" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="98">
         <f>Financials!O24</f>
         <v>35392000</v>
       </c>
-      <c r="P10" s="40"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83">
+      <c r="A11" s="55"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.13370339685169852</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
         <v>0.46028150075271479</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="38">
         <f t="shared" si="0"/>
         <v>5.242665972715721E-2</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="39">
         <f t="shared" si="0"/>
         <v>6.5155160771857012E-2</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>3.9285714285714368E-2</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="38">
         <f t="shared" si="0"/>
         <v>2.2336769759450092E-2</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>1.6806722689075571E-2</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="56">
         <f t="shared" si="0"/>
         <v>2.4793388429751984E-2</v>
       </c>
-      <c r="K11" s="85">
+      <c r="K11" s="56">
         <f>SUM(F11:J11)/5</f>
         <v>3.3675551187169805E-2</v>
       </c>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="56" t="s">
+      <c r="L11" s="50"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="86">
+      <c r="O11" s="101">
         <f>O9/O10</f>
         <v>0.16594145569620253</v>
       </c>
-      <c r="P11" s="40"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="52">
         <v>14942000</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="52">
         <v>18274000</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="52">
         <v>30476000</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="52">
         <v>30814000</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="57">
         <v>28000000</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="52">
         <v>32000000</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="52">
         <v>33000000</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="52">
         <v>33500000</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="53">
         <v>34000000</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="87" t="s">
+      <c r="L12" s="50"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="O12" s="88">
+      <c r="O12" s="101">
         <f>O8*(1-O11)</f>
         <v>-1.6486683903083641E-2</v>
       </c>
-      <c r="P12" s="40"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83">
+      <c r="A13" s="55"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.22299558292062649</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="38">
         <f t="shared" si="1"/>
         <v>0.66772463609499844</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="38">
         <f t="shared" si="1"/>
         <v>1.10906943168394E-2</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="39">
         <f t="shared" si="1"/>
         <v>-9.1322126306224494E-2</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G13" s="38">
         <f t="shared" si="1"/>
         <v>0.14285714285714279</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="38">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="38">
         <f t="shared" si="1"/>
         <v>1.5151515151515138E-2</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="56">
         <f t="shared" si="1"/>
         <v>1.4925373134328401E-2</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="56">
         <f>SUM(F13:J13)/5</f>
         <v>2.2572380967352368E-2</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="114" t="s">
+      <c r="L13" s="50"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="40"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="41">
+        <f>B12/B10</f>
+        <v>0.24758906379453191</v>
+      </c>
+      <c r="C14" s="41">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.26708955114807292</v>
+      </c>
+      <c r="D14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.30503147801543373</v>
+      </c>
+      <c r="E14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.29305081360735719</v>
+      </c>
+      <c r="F14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.27491408934707906</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.27731092436974791</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.27685950413223143</v>
+      </c>
+      <c r="J14" s="43">
+        <f t="shared" si="2"/>
+        <v>0.27419354838709675</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="O14" s="101">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B15" s="52">
         <v>16561000</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C15" s="52">
         <v>24979000</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D15" s="52">
         <v>45061000</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E15" s="52">
         <v>32237000</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F15" s="57">
         <v>38000000</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G15" s="52">
         <v>41000000</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H15" s="52">
         <v>40000000</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I15" s="52">
         <v>41000000</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J15" s="53">
         <v>42000000</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K15" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="O14" s="86">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="50"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="102" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.50830263872954529</v>
       </c>
-      <c r="D15" s="83">
-        <f t="shared" si="2"/>
+      <c r="D16" s="38">
+        <f t="shared" si="3"/>
         <v>0.80395532247087553</v>
       </c>
-      <c r="E15" s="83">
-        <f t="shared" si="2"/>
+      <c r="E16" s="38">
+        <f t="shared" si="3"/>
         <v>-0.28459199751448039</v>
       </c>
-      <c r="F15" s="84">
-        <f t="shared" si="2"/>
+      <c r="F16" s="39">
+        <f t="shared" si="3"/>
         <v>0.17876973663802453</v>
       </c>
-      <c r="G15" s="83">
-        <f t="shared" si="2"/>
+      <c r="G16" s="38">
+        <f t="shared" si="3"/>
         <v>7.8947368421052655E-2</v>
       </c>
-      <c r="H15" s="83">
-        <f t="shared" si="2"/>
+      <c r="H16" s="38">
+        <f t="shared" si="3"/>
         <v>-2.4390243902439046E-2</v>
       </c>
-      <c r="I15" s="83">
-        <f t="shared" si="2"/>
+      <c r="I16" s="38">
+        <f t="shared" si="3"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="J15" s="83">
-        <f t="shared" si="2"/>
+      <c r="J16" s="56">
+        <f t="shared" si="3"/>
         <v>2.4390243902439046E-2</v>
       </c>
-      <c r="K15" s="85">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="56">
+        <f>SUM(F16:J16)/5</f>
         <v>5.654342101181542E-2</v>
       </c>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="O15" s="90" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.66920000000000002</v>
-      </c>
-      <c r="P15" s="40"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="L16" s="50"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="O16" s="101">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="41">
+        <f>B15/B10</f>
+        <v>0.27441590720795361</v>
+      </c>
+      <c r="C17" s="41">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.3650886449670413</v>
+      </c>
+      <c r="D17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.45101140014613006</v>
+      </c>
+      <c r="E17" s="43">
+        <f t="shared" si="4"/>
+        <v>0.30658399033752104</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.35223367697594504</v>
+      </c>
+      <c r="H17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.33613445378151263</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.33884297520661155</v>
+      </c>
+      <c r="J17" s="43">
+        <f t="shared" si="4"/>
+        <v>0.33870967741935482</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" s="104">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>7.0745910000000009E-2</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B18" s="61">
         <v>0.38164821718220882</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C18" s="61">
         <v>0.44853515625000001</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D18" s="61">
         <v>0.68847946297056484</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E18" s="61">
         <v>0.61304304393189335</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="O16" s="86">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="40"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="O17" s="97">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.1333668000000003E-2</v>
-      </c>
-      <c r="P17" s="40"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="114" t="s">
+      <c r="F18" s="62"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="40"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Investment Banking &amp; Investment Services</v>
-      </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="116" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1997</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="56" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="O19" s="99">
+      <c r="O19" s="105">
         <f>O6+O7</f>
         <v>14924000</v>
       </c>
-      <c r="P19" s="40"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" s="105" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>700711250</v>
+      </c>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Investment Banking &amp; Investment Services</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1997</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="O21" s="105">
+        <f>O19+O20</f>
+        <v>715635250</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="118" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>OTC Markets Group Inc. operates regulated markets for trading 12,000 United States and international securities. The Company’s three public markets include OTCQX Best Market, OTCQB Venture Market and Pink Open Market. It operates three business lines: OTC Link, Market Data Licensing, and Corporate Services. Its wholly owned subsidiary, OTC Link LLC, operates OTC Link ATS, OTC Link ECN, and OTC Link NQB, each a Securities and Exchange Commission (SEC)-regulated alternative trading system (ATS). Market Data Licensing distributes market data and financial information. Corporate Services operates the OTCQX and OTCQB markets and offers issuers disclosure and regulatory compliance products. It provides critical infrastructure to the United States financial markets, connecting brokers, organizing markets, and incentivizing disclosure. Its market data provides price transparency, assists regulated entities in meeting their compliance obligations, and enables informed investment decisions.</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="O20" s="99" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>685694605</v>
-      </c>
-      <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="O21" s="99">
-        <f>O19+O20</f>
-        <v>700618605</v>
-      </c>
-      <c r="P21" s="40"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="70" t="s">
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="100">
+      <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>2.130117569458493E-2</v>
-      </c>
-      <c r="P22" s="40"/>
+        <v>2.0854199118894717E-2</v>
+      </c>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="96" t="s">
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="101">
+      <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.9786988243054151</v>
-      </c>
-      <c r="P23" s="40"/>
+        <v>0.97914580088110525</v>
+      </c>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="106" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="40"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="108">
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.9462991254552145E-2</v>
-      </c>
-      <c r="O25" s="109"/>
-      <c r="P25" s="40"/>
+        <v>6.8926744117087421E-2</v>
+      </c>
+      <c r="O25" s="111"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="77"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="77"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="77"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="77"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="77"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="77"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="77"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="77"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="77"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="77"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="77"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="77"/>
-      <c r="N60" s="77"/>
-      <c r="O60" s="77"/>
-      <c r="P60" s="77"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="77"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="77"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="40"/>
-      <c r="P103" s="40"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="40"/>
-      <c r="P104" s="40"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="40"/>
-      <c r="P105" s="40"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="40"/>
-      <c r="P106" s="40"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="40"/>
-      <c r="P107" s="40"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="40"/>
-      <c r="P108" s="40"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="40"/>
-      <c r="P109" s="40"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="40"/>
-      <c r="P110" s="40"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15583,8 +15836,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/OTCPK:OTCM/explorer/revenue_proj" xr:uid="{F839210E-FC70-114C-8F30-999D2E9167AB}"/>

--- a/Financials/OTC Markets Group.xlsx
+++ b/Financials/OTC Markets Group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE3F19-F5CB-EA44-AEC3-94D9EB9C9730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B93AE6-8292-264D-A0C3-564D03310160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1378,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1692,7 +1692,10 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1726,10 +1729,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1749,7 +1754,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1762,6 +1767,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1889,11 +1896,11 @@
     <v>Powered by Refinitiv</v>
     <v>64.989999999999995</v>
     <v>49.500100000000003</v>
-    <v>0.67900000000000005</v>
-    <v>-0.25</v>
-    <v>-4.2370000000000003E-3</v>
-    <v>-0.8</v>
-    <v>-1.3616999999999999E-2</v>
+    <v>0.68789999999999996</v>
+    <v>-0.3</v>
+    <v>-5.3049999999999998E-3</v>
+    <v>-0.21</v>
+    <v>-3.7330000000000002E-3</v>
     <v>USD</v>
     <v>OTC Markets Group Inc. operates regulated markets for trading 12,000 United States and international securities. The Company’s three public markets include OTCQX Best Market, OTCQB Venture Market and Pink Open Market. It operates three business lines: OTC Link, Market Data Licensing, and Corporate Services. Its wholly owned subsidiary, OTC Link LLC, operates OTC Link ATS, OTC Link ECN, and OTC Link NQB, each a Securities and Exchange Commission (SEC)-regulated alternative trading system (ATS). Market Data Licensing distributes market data and financial information. Corporate Services operates the OTCQX and OTCQB markets and offers issuers disclosure and regulatory compliance products. It provides critical infrastructure to the United States financial markets, connecting brokers, organizing markets, and incentivizing disclosure. Its market data provides price transparency, assists regulated entities in meeting their compliance obligations, and enables informed investment decisions.</v>
     <v>82</v>
@@ -1901,25 +1908,25 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>304 Hudson Street, NEW YORK, NY, 10013 US</v>
-    <v>58.75</v>
+    <v>57</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45262.048611111109</v>
+    <v>45269.048611111109</v>
     <v>0</v>
-    <v>57.1</v>
-    <v>700711250</v>
+    <v>55.32</v>
+    <v>670893750</v>
     <v>OTC MARKETS GROUP INC.</v>
     <v>OTC MARKETS GROUP INC.</v>
-    <v>58.02</v>
-    <v>23.752400000000002</v>
-    <v>59</v>
-    <v>58.75</v>
-    <v>57.95</v>
+    <v>56.98</v>
+    <v>22.766100000000002</v>
+    <v>56.55</v>
+    <v>56.25</v>
+    <v>56.04</v>
     <v>11927000</v>
     <v>OTCM</v>
     <v>OTC MARKETS GROUP INC. (OTCM:OTCM)</v>
-    <v>1301</v>
-    <v>5770</v>
+    <v>7936</v>
+    <v>3190</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -14037,7 +14044,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14086,7 +14093,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>700711250</v>
+        <v>670893750</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>202</v>
@@ -14114,14 +14121,14 @@
       </c>
       <c r="I3" s="70">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>875594744.2053138</v>
+        <v>878784132.18325591</v>
       </c>
       <c r="J3" s="71" t="s">
         <v>206</v>
       </c>
       <c r="K3" s="72">
         <f>(Financials!O172*-1)/A3</f>
-        <v>3.7628909197618847E-2</v>
+        <v>3.9301305161957463E-2</v>
       </c>
       <c r="L3" s="73" t="s">
         <v>213</v>
@@ -14164,14 +14171,14 @@
       </c>
       <c r="I4" s="78">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>793110876.4648186</v>
+        <v>795999652.0509901</v>
       </c>
       <c r="J4" s="76" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="79" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.2370000000000003E-3</v>
+        <v>-5.3049999999999998E-3</v>
       </c>
       <c r="L4" s="80" t="s">
         <v>251</v>
@@ -14214,14 +14221,14 @@
       </c>
       <c r="I5" s="78">
         <f>I4+G5-G6</f>
-        <v>808070876.4648186</v>
+        <v>810959652.0509901</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="82" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>58.75</v>
+        <v>56.25</v>
       </c>
       <c r="L5" s="83" t="s">
         <v>220</v>
@@ -14239,7 +14246,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="84">
         <f>O20/F10</f>
-        <v>6.2563504464285717</v>
+        <v>5.9901227678571427</v>
       </c>
       <c r="B6" s="75" t="s">
         <v>222</v>
@@ -14267,14 +14274,14 @@
       </c>
       <c r="I6" s="79">
         <f>N25</f>
-        <v>6.8926744117087421E-2</v>
+        <v>6.8749173353378698E-2</v>
       </c>
       <c r="J6" s="76" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="85">
         <f>I5/G4</f>
-        <v>65.700014589362965</v>
+        <v>65.934885816237482</v>
       </c>
       <c r="L6" s="86" t="s">
         <v>226</v>
@@ -14292,14 +14299,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87">
         <f>O20/F12</f>
-        <v>25.025401785714287</v>
+        <v>23.960491071428571</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="89">
         <f>F15/A3</f>
-        <v>5.4230612110195177E-2</v>
+        <v>5.6640861537314964E-2</v>
       </c>
       <c r="D7" s="88" t="s">
         <v>229</v>
@@ -14326,7 +14333,7 @@
       </c>
       <c r="K7" s="95">
         <f>K6/K5-1</f>
-        <v>0.118298120670008</v>
+        <v>0.17217574784422185</v>
       </c>
       <c r="L7" s="96" t="s">
         <v>232</v>
@@ -14639,7 +14646,7 @@
       </c>
       <c r="O14" s="101">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
@@ -14684,7 +14691,7 @@
       </c>
       <c r="O15" s="102" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.67900000000000005</v>
+        <v>0.68789999999999996</v>
       </c>
       <c r="P15" s="34"/>
     </row>
@@ -14785,7 +14792,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.0745910000000009E-2</v>
+        <v>7.0645240999999998E-2</v>
       </c>
       <c r="P17" s="34"/>
     </row>
@@ -14861,22 +14868,22 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>700711250</v>
+        <v>670893750</v>
       </c>
       <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118" t="str" cm="1">
+      <c r="A21" s="119" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119" cm="1">
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1997</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="120"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -14889,7 +14896,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>715635250</v>
+        <v>685817750</v>
       </c>
       <c r="P21" s="34"/>
     </row>
@@ -14915,7 +14922,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>2.0854199118894717E-2</v>
+        <v>2.1760883266727933E-2</v>
       </c>
       <c r="P22" s="34"/>
     </row>
@@ -14938,7 +14945,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.97914580088110525</v>
+        <v>0.97823911673327202</v>
       </c>
       <c r="P23" s="34"/>
     </row>
@@ -14978,7 +14985,7 @@
       <c r="M25" s="37"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.8926744117087421E-2</v>
+        <v>6.8749173353378698E-2</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="34"/>
